--- a/app/src/main/assets/user_guide.xlsx
+++ b/app/src/main/assets/user_guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shenh\Documents\GitHub\ObjectOwl\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A687B838-7B33-46A5-ABAA-5712E65BAB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF34FF-6295-4AE2-917C-14698B7F943E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3330" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>User Guide</t>
   </si>
@@ -36,7 +36,31 @@
     <t>How to recognize an object?</t>
   </si>
   <si>
-    <t>This is description for how to recognize an object</t>
+    <t>To recognize an object, click on the 'Camera' icon button located at the top right corner of the Home page. Otherwise, you can also click on the 'Recognize Object; feature button located in the menu bar.</t>
+  </si>
+  <si>
+    <t>After you take the photo of object you want to recognize, you will be navigated to the Classified page. You should choose a suitable model to classify the image you have taken. After a few seconds, you will be navigated to the result page to view the result.</t>
+  </si>
+  <si>
+    <t>What is milestone</t>
+  </si>
+  <si>
+    <t>The Milestones feature in ObjectOwl motivates you to keep learning by rewarding you for identifying different objects. As you scan objects using the app, you progress toward unlocking various achievements. Here’s how to make the most of the milestones system:
+Types of Milestones:
+1. Locked Milestones:
+These milestones are greyed out and represent goals that you haven’t unlocked yet.
+Example: "Scan 10 types of objects to unlock this achievement!" (as seen in the milestone details).
+To unlock, continue scanning objects until you meet the requirements for each milestone.
+2. Unlocked Milestones:
+Once you’ve met the criteria (e.g., scanning a certain number of objects), the milestone becomes unlocked, and you’ll be awarded a special badge and displayed in the Milestones section.
+How to Unlock Milestones:
+Start Scanning: Every time you scan a new object using ObjectOwl, it will count towards unlocking a milestone.
+Progress Tracking:
+-Go to the "Milestones" section to see your progress.
+-Locked milestones are marked with a greyed-out badge and display the requirements by clicking on the greyed-out badge.
+-Unlocked milestones display a colourful badge, showing that you have completed the task.
+Motivation and Rewards:
+Milestones keep you motivated by giving you specific goals to achieve. Unlocking milestones adds badges to your profile, providing a sense of accomplishment as you explore more objects. Keep exploring, keep scanning, and aim to unlock all the milestones!</t>
   </si>
 </sst>
 </file>
@@ -72,8 +96,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,16 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="233.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -375,14 +405,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>